--- a/data/pca/factorExposure/factorExposure_2009-07-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01660062637112451</v>
+        <v>0.01652391162655689</v>
       </c>
       <c r="C2">
-        <v>0.001375552010927493</v>
+        <v>-0.0009272616562839458</v>
       </c>
       <c r="D2">
-        <v>0.007932266711044562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009362217624895438</v>
+      </c>
+      <c r="E2">
+        <v>-0.001296119078785748</v>
+      </c>
+      <c r="F2">
+        <v>0.01238984406444828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09075089830935526</v>
+        <v>0.0913687388653068</v>
       </c>
       <c r="C4">
-        <v>0.01969730047003759</v>
+        <v>-0.01454597983319631</v>
       </c>
       <c r="D4">
-        <v>0.07258420213291142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08309431832224927</v>
+      </c>
+      <c r="E4">
+        <v>-0.02840063536090772</v>
+      </c>
+      <c r="F4">
+        <v>-0.03203026562649049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1518087415635628</v>
+        <v>0.1608359736649672</v>
       </c>
       <c r="C6">
-        <v>0.02878134973296042</v>
+        <v>-0.02785109343196719</v>
       </c>
       <c r="D6">
-        <v>-0.03148049228334777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02679461595521572</v>
+      </c>
+      <c r="E6">
+        <v>-0.008839145194830469</v>
+      </c>
+      <c r="F6">
+        <v>-0.04166790118695025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06166762506273503</v>
+        <v>0.06271272988360534</v>
       </c>
       <c r="C7">
-        <v>0.002261694138661639</v>
+        <v>0.001604519629617557</v>
       </c>
       <c r="D7">
-        <v>0.04431396560361121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05253068153621334</v>
+      </c>
+      <c r="E7">
+        <v>-0.01329808920912057</v>
+      </c>
+      <c r="F7">
+        <v>-0.04855720495294133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06229621145904526</v>
+        <v>0.05790720630574266</v>
       </c>
       <c r="C8">
-        <v>-0.01067433274173503</v>
+        <v>0.01245293104254169</v>
       </c>
       <c r="D8">
-        <v>0.02618174787811881</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03062704759816622</v>
+      </c>
+      <c r="E8">
+        <v>-0.01710607066671524</v>
+      </c>
+      <c r="F8">
+        <v>0.02589542874577081</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07077823812220657</v>
+        <v>0.07076814343873974</v>
       </c>
       <c r="C9">
-        <v>0.01643812438980439</v>
+        <v>-0.01031206504823646</v>
       </c>
       <c r="D9">
-        <v>0.0735469592350205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08622685905317602</v>
+      </c>
+      <c r="E9">
+        <v>-0.02499468593054829</v>
+      </c>
+      <c r="F9">
+        <v>-0.04842584439366582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08548200699736164</v>
+        <v>0.08904629287629251</v>
       </c>
       <c r="C10">
-        <v>0.01403470450671058</v>
+        <v>-0.02133723234890569</v>
       </c>
       <c r="D10">
-        <v>-0.1654933176415957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.160277284032095</v>
+      </c>
+      <c r="E10">
+        <v>0.03273943776114509</v>
+      </c>
+      <c r="F10">
+        <v>0.05747397604189027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09123831943629769</v>
+        <v>0.08777779322928576</v>
       </c>
       <c r="C11">
-        <v>0.01743889755546805</v>
+        <v>-0.01116480356094902</v>
       </c>
       <c r="D11">
-        <v>0.1050468262659194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1178133158353012</v>
+      </c>
+      <c r="E11">
+        <v>-0.04782452412410958</v>
+      </c>
+      <c r="F11">
+        <v>-0.02301374215404688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09585036506828232</v>
+        <v>0.09031913472114762</v>
       </c>
       <c r="C12">
-        <v>0.01519051714892445</v>
+        <v>-0.008253895020636353</v>
       </c>
       <c r="D12">
-        <v>0.1080863601126826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1320863156967969</v>
+      </c>
+      <c r="E12">
+        <v>-0.04679949411909334</v>
+      </c>
+      <c r="F12">
+        <v>-0.02970769187420777</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04406250582364924</v>
+        <v>0.04372958127528985</v>
       </c>
       <c r="C13">
-        <v>0.005677018389459265</v>
+        <v>-0.002366100135063154</v>
       </c>
       <c r="D13">
-        <v>0.03595122091878335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05346577892537903</v>
+      </c>
+      <c r="E13">
+        <v>0.0005656114653768518</v>
+      </c>
+      <c r="F13">
+        <v>-0.003703513431432404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01844910351777952</v>
+        <v>0.02337893707171197</v>
       </c>
       <c r="C14">
-        <v>0.01495282120915797</v>
+        <v>-0.01357448444524209</v>
       </c>
       <c r="D14">
-        <v>0.02677170654796678</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03309461214031413</v>
+      </c>
+      <c r="E14">
+        <v>-0.01838012677964448</v>
+      </c>
+      <c r="F14">
+        <v>-0.01298008938364894</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03326138430703383</v>
+        <v>0.0330817854173227</v>
       </c>
       <c r="C15">
-        <v>0.007420935013661891</v>
+        <v>-0.005193156627500151</v>
       </c>
       <c r="D15">
-        <v>0.03913694811287791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04633856979351028</v>
+      </c>
+      <c r="E15">
+        <v>-0.007628890226303231</v>
+      </c>
+      <c r="F15">
+        <v>-0.02968951699101445</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0751782702377073</v>
+        <v>0.07292464493617891</v>
       </c>
       <c r="C16">
-        <v>0.007890328512538179</v>
+        <v>-0.001450240164087079</v>
       </c>
       <c r="D16">
-        <v>0.1061897999786874</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.128445253755385</v>
+      </c>
+      <c r="E16">
+        <v>-0.06200232288297356</v>
+      </c>
+      <c r="F16">
+        <v>-0.02565842938212277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.000251742140674685</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002730848529744171</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001460685806744962</v>
+      </c>
+      <c r="E17">
+        <v>-0.001081128552110063</v>
+      </c>
+      <c r="F17">
+        <v>0.002417279664919312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01830872296261307</v>
+        <v>0.03929956049654905</v>
       </c>
       <c r="C18">
-        <v>-0.003314969347388788</v>
+        <v>0.00300055988805192</v>
       </c>
       <c r="D18">
-        <v>0.02919824165518196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01538678440957837</v>
+      </c>
+      <c r="E18">
+        <v>0.007787992723079238</v>
+      </c>
+      <c r="F18">
+        <v>0.008819402773961642</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06375966942141499</v>
+        <v>0.06240298024941924</v>
       </c>
       <c r="C20">
-        <v>0.00575786590073746</v>
+        <v>-0.0007882721899450197</v>
       </c>
       <c r="D20">
-        <v>0.06367173747053478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07854633747146292</v>
+      </c>
+      <c r="E20">
+        <v>-0.05738696003836638</v>
+      </c>
+      <c r="F20">
+        <v>-0.02887336279696506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03844826705979183</v>
+        <v>0.04137374812472619</v>
       </c>
       <c r="C21">
-        <v>0.009620761864300029</v>
+        <v>-0.00656532307365859</v>
       </c>
       <c r="D21">
-        <v>0.03531099292233754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0376252978946083</v>
+      </c>
+      <c r="E21">
+        <v>0.0009241360610871873</v>
+      </c>
+      <c r="F21">
+        <v>0.02676345499534376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04158785321106635</v>
+        <v>0.04445314819407067</v>
       </c>
       <c r="C22">
-        <v>0.001764005733733052</v>
+        <v>-0.0007841623982833181</v>
       </c>
       <c r="D22">
-        <v>-0.003249399044738779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.005843808938984628</v>
+      </c>
+      <c r="E22">
+        <v>-0.0360595597076298</v>
+      </c>
+      <c r="F22">
+        <v>0.05045349765255847</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0415506869019907</v>
+        <v>0.04442905524416608</v>
       </c>
       <c r="C23">
-        <v>0.001753713031673209</v>
+        <v>-0.0007752445355476048</v>
       </c>
       <c r="D23">
-        <v>-0.003226579038434671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.005858226436790658</v>
+      </c>
+      <c r="E23">
+        <v>-0.03624227338938565</v>
+      </c>
+      <c r="F23">
+        <v>0.05042566380134781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08186537828340693</v>
+        <v>0.07872464503648445</v>
       </c>
       <c r="C24">
-        <v>0.008188578909442272</v>
+        <v>-0.002113205924198526</v>
       </c>
       <c r="D24">
-        <v>0.1096703415267639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1207268170980716</v>
+      </c>
+      <c r="E24">
+        <v>-0.04971488076572993</v>
+      </c>
+      <c r="F24">
+        <v>-0.0283141648850751</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08742782835512496</v>
+        <v>0.08392973735487033</v>
       </c>
       <c r="C25">
-        <v>0.01085326427685163</v>
+        <v>-0.004805236388117113</v>
       </c>
       <c r="D25">
-        <v>0.09542518061522756</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1099540648467794</v>
+      </c>
+      <c r="E25">
+        <v>-0.0329645776861367</v>
+      </c>
+      <c r="F25">
+        <v>-0.02602265569808347</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05782343919869811</v>
+        <v>0.05966081479397184</v>
       </c>
       <c r="C26">
-        <v>0.01743890839534681</v>
+        <v>-0.01441765184584815</v>
       </c>
       <c r="D26">
-        <v>0.02344272266302342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04313868923322338</v>
+      </c>
+      <c r="E26">
+        <v>-0.02959300855137442</v>
+      </c>
+      <c r="F26">
+        <v>0.009024379500338894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1329259104026211</v>
+        <v>0.1420475578084802</v>
       </c>
       <c r="C28">
-        <v>0.01303598594199349</v>
+        <v>-0.02278613342533771</v>
       </c>
       <c r="D28">
-        <v>-0.2705253812397566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2608683787085815</v>
+      </c>
+      <c r="E28">
+        <v>0.06862492384921418</v>
+      </c>
+      <c r="F28">
+        <v>-0.005483936199817122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02511710514899341</v>
+        <v>0.02881269631340008</v>
       </c>
       <c r="C29">
-        <v>0.0097257958670175</v>
+        <v>-0.008739755073792722</v>
       </c>
       <c r="D29">
-        <v>0.02510366714377453</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03098427943759652</v>
+      </c>
+      <c r="E29">
+        <v>-0.01327753254664697</v>
+      </c>
+      <c r="F29">
+        <v>0.01332867102293228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06272384825467468</v>
+        <v>0.058771272736195</v>
       </c>
       <c r="C30">
-        <v>0.009669795745277435</v>
+        <v>-0.002614126044611498</v>
       </c>
       <c r="D30">
-        <v>0.07038330115938944</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08732437831732806</v>
+      </c>
+      <c r="E30">
+        <v>-0.01404759416076522</v>
+      </c>
+      <c r="F30">
+        <v>-0.07882814532902707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05024171230496206</v>
+        <v>0.05107864854681871</v>
       </c>
       <c r="C31">
-        <v>0.01709987794620782</v>
+        <v>-0.01600103110111072</v>
       </c>
       <c r="D31">
-        <v>0.02218784886437743</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02497983860287515</v>
+      </c>
+      <c r="E31">
+        <v>-0.02898209958980585</v>
+      </c>
+      <c r="F31">
+        <v>0.0008070276599364621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0468746492568529</v>
+        <v>0.05103660760288706</v>
       </c>
       <c r="C32">
-        <v>0.002192194771893505</v>
+        <v>0.001730797813159413</v>
       </c>
       <c r="D32">
-        <v>0.02234730679438633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03462929325943803</v>
+      </c>
+      <c r="E32">
+        <v>-0.0323890383204139</v>
+      </c>
+      <c r="F32">
+        <v>-0.002358198890281813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09147970171731179</v>
+        <v>0.08945546077115836</v>
       </c>
       <c r="C33">
-        <v>0.01361906977954772</v>
+        <v>-0.006916693981444192</v>
       </c>
       <c r="D33">
-        <v>0.08340453345331968</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1033871239768411</v>
+      </c>
+      <c r="E33">
+        <v>-0.04683222071250221</v>
+      </c>
+      <c r="F33">
+        <v>-0.04298967349504172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06894719833487918</v>
+        <v>0.06754256957708493</v>
       </c>
       <c r="C34">
-        <v>0.01562370437330166</v>
+        <v>-0.01033109366476863</v>
       </c>
       <c r="D34">
-        <v>0.09055158574472122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1096066175392206</v>
+      </c>
+      <c r="E34">
+        <v>-0.03603808019405356</v>
+      </c>
+      <c r="F34">
+        <v>-0.03332355679264484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02461157721558214</v>
+        <v>0.02665746540473511</v>
       </c>
       <c r="C35">
-        <v>0.003221514293360988</v>
+        <v>-0.003039658077220464</v>
       </c>
       <c r="D35">
-        <v>0.006855339161691979</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01242706779938377</v>
+      </c>
+      <c r="E35">
+        <v>-0.01314312106865065</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007322733802959899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02572858184330592</v>
+        <v>0.02771449735338543</v>
       </c>
       <c r="C36">
-        <v>0.007686995203823065</v>
+        <v>-0.00687074540542265</v>
       </c>
       <c r="D36">
-        <v>0.03870048368646772</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03917346716917026</v>
+      </c>
+      <c r="E36">
+        <v>-0.01697422462196842</v>
+      </c>
+      <c r="F36">
+        <v>-0.01372953799364353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0008752401025610973</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007355019558663573</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002449777154894769</v>
+      </c>
+      <c r="E37">
+        <v>-8.645289791111356e-05</v>
+      </c>
+      <c r="F37">
+        <v>0.001726188876717043</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1136000346643469</v>
+        <v>0.102243322461282</v>
       </c>
       <c r="C39">
-        <v>0.02371298055260771</v>
+        <v>-0.01615022766062906</v>
       </c>
       <c r="D39">
-        <v>0.1431903760957811</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.151531880223623</v>
+      </c>
+      <c r="E39">
+        <v>-0.06009735077019986</v>
+      </c>
+      <c r="F39">
+        <v>-0.02075234280805895</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03809894666543173</v>
+        <v>0.04302486704431471</v>
       </c>
       <c r="C40">
-        <v>0.009310639135912553</v>
+        <v>-0.007567318213923859</v>
       </c>
       <c r="D40">
-        <v>0.01796809966856972</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03258934359910873</v>
+      </c>
+      <c r="E40">
+        <v>-0.001932688337851115</v>
+      </c>
+      <c r="F40">
+        <v>0.01609896000367599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0254057640072564</v>
+        <v>0.0278815166441687</v>
       </c>
       <c r="C41">
-        <v>0.007391891281793248</v>
+        <v>-0.006880154747273566</v>
       </c>
       <c r="D41">
-        <v>0.008907861983102462</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01088676838259244</v>
+      </c>
+      <c r="E41">
+        <v>-0.01230015425968611</v>
+      </c>
+      <c r="F41">
+        <v>0.007786873004975013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04224368311221696</v>
+        <v>0.04038104073684708</v>
       </c>
       <c r="C43">
-        <v>0.008352898475580238</v>
+        <v>-0.007637527565397032</v>
       </c>
       <c r="D43">
-        <v>0.01595111633486474</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01957088952189979</v>
+      </c>
+      <c r="E43">
+        <v>-0.02570951567374527</v>
+      </c>
+      <c r="F43">
+        <v>0.01651801443166682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07043550068912469</v>
+        <v>0.07930311971744503</v>
       </c>
       <c r="C44">
-        <v>0.02550222718293391</v>
+        <v>-0.01953987132130079</v>
       </c>
       <c r="D44">
-        <v>0.09099160235026489</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09628790405818384</v>
+      </c>
+      <c r="E44">
+        <v>-0.06283716723850391</v>
+      </c>
+      <c r="F44">
+        <v>-0.1679162845629862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02152464562194631</v>
+        <v>0.02464400601257522</v>
       </c>
       <c r="C46">
-        <v>0.004315847390871892</v>
+        <v>-0.003640898159410046</v>
       </c>
       <c r="D46">
-        <v>0.004756798008048268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01328034355319707</v>
+      </c>
+      <c r="E46">
+        <v>-0.02733506199178397</v>
+      </c>
+      <c r="F46">
+        <v>0.005664963593315264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05260893774167118</v>
+        <v>0.05214238978181381</v>
       </c>
       <c r="C47">
-        <v>0.004873723988640105</v>
+        <v>-0.004283841319684306</v>
       </c>
       <c r="D47">
-        <v>0.008388408886613212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01093428415867851</v>
+      </c>
+      <c r="E47">
+        <v>-0.02294800301760769</v>
+      </c>
+      <c r="F47">
+        <v>0.03292084607006976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04777261269164623</v>
+        <v>0.05049692693635215</v>
       </c>
       <c r="C48">
-        <v>0.004681624028875717</v>
+        <v>-0.002143131610013145</v>
       </c>
       <c r="D48">
-        <v>0.04357584374623229</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05005879812317777</v>
+      </c>
+      <c r="E48">
+        <v>0.004796236784510656</v>
+      </c>
+      <c r="F48">
+        <v>-0.01230584890614151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2018415676361359</v>
+        <v>0.2006721661141923</v>
       </c>
       <c r="C49">
-        <v>0.02206066400963053</v>
+        <v>-0.01986335510149349</v>
       </c>
       <c r="D49">
-        <v>-0.01462343528732714</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005013322243400981</v>
+      </c>
+      <c r="E49">
+        <v>-0.03217421257264814</v>
+      </c>
+      <c r="F49">
+        <v>-0.04761081907705454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04941806774542704</v>
+        <v>0.05155457168341206</v>
       </c>
       <c r="C50">
-        <v>0.01307910492465619</v>
+        <v>-0.01169988936915676</v>
       </c>
       <c r="D50">
-        <v>0.02270874164810565</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02332568775227743</v>
+      </c>
+      <c r="E50">
+        <v>-0.03005048592085696</v>
+      </c>
+      <c r="F50">
+        <v>-0.01001222407849346</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1560049042391239</v>
+        <v>0.1495583191220939</v>
       </c>
       <c r="C52">
-        <v>0.02051772949958584</v>
+        <v>-0.01866437122774766</v>
       </c>
       <c r="D52">
-        <v>0.04802239424422746</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04241141525160789</v>
+      </c>
+      <c r="E52">
+        <v>-0.02312374243543824</v>
+      </c>
+      <c r="F52">
+        <v>-0.04293174891325868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1744836195623831</v>
+        <v>0.1698647827759397</v>
       </c>
       <c r="C53">
-        <v>0.02072837032593631</v>
+        <v>-0.02133994976513246</v>
       </c>
       <c r="D53">
-        <v>0.01207399626848546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005757326486909977</v>
+      </c>
+      <c r="E53">
+        <v>-0.03066472079442547</v>
+      </c>
+      <c r="F53">
+        <v>-0.07515593761535008</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.0169312375604605</v>
+        <v>0.01965890304616568</v>
       </c>
       <c r="C54">
-        <v>0.01235571847468739</v>
+        <v>-0.01095947954867881</v>
       </c>
       <c r="D54">
-        <v>0.02790138866363369</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0339302353533357</v>
+      </c>
+      <c r="E54">
+        <v>-0.02150830072931628</v>
+      </c>
+      <c r="F54">
+        <v>0.001614715875080708</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1170865645570728</v>
+        <v>0.1159948983546053</v>
       </c>
       <c r="C55">
-        <v>0.01844465582243733</v>
+        <v>-0.01861917518776151</v>
       </c>
       <c r="D55">
-        <v>0.0103647891243426</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.00878178568889585</v>
+      </c>
+      <c r="E55">
+        <v>-0.02604924191595186</v>
+      </c>
+      <c r="F55">
+        <v>-0.04753391153235351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1800897227814209</v>
+        <v>0.1760062895311283</v>
       </c>
       <c r="C56">
-        <v>0.0185890712275102</v>
+        <v>-0.01930762784085799</v>
       </c>
       <c r="D56">
-        <v>0.004982866238159729</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002340875113386567</v>
+      </c>
+      <c r="E56">
+        <v>-0.03317665800995366</v>
+      </c>
+      <c r="F56">
+        <v>-0.0543339808948476</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04870976638832092</v>
+        <v>0.04582347748251604</v>
       </c>
       <c r="C58">
-        <v>0.005760449830158968</v>
+        <v>0.0003213532951668565</v>
       </c>
       <c r="D58">
-        <v>0.0608601228637047</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07472604699525207</v>
+      </c>
+      <c r="E58">
+        <v>-0.03551231057193824</v>
+      </c>
+      <c r="F58">
+        <v>0.03604809344983662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.162968158346659</v>
+        <v>0.1670057018588158</v>
       </c>
       <c r="C59">
-        <v>0.01468270359282031</v>
+        <v>-0.02309811092992614</v>
       </c>
       <c r="D59">
-        <v>-0.227346988527366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2184660710042347</v>
+      </c>
+      <c r="E59">
+        <v>0.04947373295663355</v>
+      </c>
+      <c r="F59">
+        <v>0.03841032963128003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2390996229879568</v>
+        <v>0.2310132831961483</v>
       </c>
       <c r="C60">
-        <v>0.0024632633041945</v>
+        <v>0.0005456314239194905</v>
       </c>
       <c r="D60">
-        <v>0.04341538132578363</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03961614534393303</v>
+      </c>
+      <c r="E60">
+        <v>-0.006356065000095848</v>
+      </c>
+      <c r="F60">
+        <v>-0.003182886472052953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08439443943228016</v>
+        <v>0.07781387400158497</v>
       </c>
       <c r="C61">
-        <v>0.0173279577317568</v>
+        <v>-0.01142546310090039</v>
       </c>
       <c r="D61">
-        <v>0.1035061301148446</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1164196969872229</v>
+      </c>
+      <c r="E61">
+        <v>-0.03839610796978071</v>
+      </c>
+      <c r="F61">
+        <v>-0.007622956337161558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1710804195116933</v>
+        <v>0.1684759967152731</v>
       </c>
       <c r="C62">
-        <v>0.02209737825955029</v>
+        <v>-0.02191809884940198</v>
       </c>
       <c r="D62">
-        <v>0.005863528254837597</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005371341546901123</v>
+      </c>
+      <c r="E62">
+        <v>-0.03328314975915288</v>
+      </c>
+      <c r="F62">
+        <v>-0.04043894618837639</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0423871867757673</v>
+        <v>0.04626471953267962</v>
       </c>
       <c r="C63">
-        <v>0.005756852337145769</v>
+        <v>-0.001769328792992909</v>
       </c>
       <c r="D63">
-        <v>0.04565123189788603</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06033592105566857</v>
+      </c>
+      <c r="E63">
+        <v>-0.02492866517736175</v>
+      </c>
+      <c r="F63">
+        <v>-0.0004678567036286423</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1131779846303097</v>
+        <v>0.1106665003135997</v>
       </c>
       <c r="C64">
-        <v>0.01568581684867233</v>
+        <v>-0.01237852618818744</v>
       </c>
       <c r="D64">
-        <v>0.03149217776404935</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04257122223032351</v>
+      </c>
+      <c r="E64">
+        <v>-0.0234961535303783</v>
+      </c>
+      <c r="F64">
+        <v>-0.02496389470577976</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1427190260704929</v>
+        <v>0.1517780900931301</v>
       </c>
       <c r="C65">
-        <v>0.03456366264835486</v>
+        <v>-0.03492147798908046</v>
       </c>
       <c r="D65">
-        <v>-0.05589925156774161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04742977249391973</v>
+      </c>
+      <c r="E65">
+        <v>-0.005153088904349746</v>
+      </c>
+      <c r="F65">
+        <v>-0.03844255618948935</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1367432879953516</v>
+        <v>0.1227072186184201</v>
       </c>
       <c r="C66">
-        <v>0.02209134165769656</v>
+        <v>-0.01453617926568948</v>
       </c>
       <c r="D66">
-        <v>0.1240194012197195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1392699240639537</v>
+      </c>
+      <c r="E66">
+        <v>-0.06457699740283208</v>
+      </c>
+      <c r="F66">
+        <v>-0.02658511598344994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06328700849449603</v>
+        <v>0.05636127976145146</v>
       </c>
       <c r="C67">
-        <v>0.005778919849794345</v>
+        <v>-0.003261036870010302</v>
       </c>
       <c r="D67">
-        <v>0.05435598145402146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05672410198404008</v>
+      </c>
+      <c r="E67">
+        <v>-0.01777531531911599</v>
+      </c>
+      <c r="F67">
+        <v>0.03428028811980371</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1067579179648043</v>
+        <v>0.1166459543097921</v>
       </c>
       <c r="C68">
-        <v>0.02294606062863935</v>
+        <v>-0.03356694375595191</v>
       </c>
       <c r="D68">
-        <v>-0.2674967241506903</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613052492771077</v>
+      </c>
+      <c r="E68">
+        <v>0.08843386050108216</v>
+      </c>
+      <c r="F68">
+        <v>-0.0009453917263497778</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03986557224398223</v>
+        <v>0.03866391534754859</v>
       </c>
       <c r="C69">
-        <v>0.002172915364270522</v>
+        <v>-0.001305837827076997</v>
       </c>
       <c r="D69">
-        <v>0.005500595303850631</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00838612350136975</v>
+      </c>
+      <c r="E69">
+        <v>-0.02399998273656241</v>
+      </c>
+      <c r="F69">
+        <v>0.001301533410741068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06604278126363804</v>
+        <v>0.06653156448813752</v>
       </c>
       <c r="C70">
-        <v>-0.02450937230018127</v>
+        <v>0.02706156130141799</v>
       </c>
       <c r="D70">
-        <v>-0.00382105811084688</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02531348841173188</v>
+      </c>
+      <c r="E70">
+        <v>0.03209395954055851</v>
+      </c>
+      <c r="F70">
+        <v>0.1810806216552888</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1254034528946748</v>
+        <v>0.1367639589921908</v>
       </c>
       <c r="C71">
-        <v>0.02699018266216868</v>
+        <v>-0.03813013606502484</v>
       </c>
       <c r="D71">
-        <v>-0.2841646752021529</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2713593289465207</v>
+      </c>
+      <c r="E71">
+        <v>0.0980695296344284</v>
+      </c>
+      <c r="F71">
+        <v>-0.006851048550926804</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.138180337017111</v>
+        <v>0.1437612241065354</v>
       </c>
       <c r="C72">
-        <v>0.02799344263313678</v>
+        <v>-0.02814028295383102</v>
       </c>
       <c r="D72">
-        <v>0.005015028811726471</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004525156195598638</v>
+      </c>
+      <c r="E72">
+        <v>-0.03725180695503956</v>
+      </c>
+      <c r="F72">
+        <v>-0.02938326716676182</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2072001888874419</v>
+        <v>0.2051833564102332</v>
       </c>
       <c r="C73">
-        <v>0.01734625733450159</v>
+        <v>-0.01366602041691783</v>
       </c>
       <c r="D73">
-        <v>0.00947525579456592</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01780657232376831</v>
+      </c>
+      <c r="E73">
+        <v>-0.06703297501030012</v>
+      </c>
+      <c r="F73">
+        <v>-0.04155003563068301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09366968793288072</v>
+        <v>0.0948340320974681</v>
       </c>
       <c r="C74">
-        <v>0.01437261836092412</v>
+        <v>-0.01408606453366408</v>
       </c>
       <c r="D74">
-        <v>0.01867474448989188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01681200283542203</v>
+      </c>
+      <c r="E74">
+        <v>-0.0444627853368014</v>
+      </c>
+      <c r="F74">
+        <v>-0.05336720989143399</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1338730213832333</v>
+        <v>0.1263154515004424</v>
       </c>
       <c r="C75">
-        <v>0.03070636693886732</v>
+        <v>-0.02943051578505258</v>
       </c>
       <c r="D75">
-        <v>0.02965488625268151</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02921565273687697</v>
+      </c>
+      <c r="E75">
+        <v>-0.05725281244158329</v>
+      </c>
+      <c r="F75">
+        <v>-0.02100894357471531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08259862561661988</v>
+        <v>0.09045034628036074</v>
       </c>
       <c r="C77">
-        <v>0.01480064600471741</v>
+        <v>-0.008504426996662273</v>
       </c>
       <c r="D77">
-        <v>0.1010493675474219</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1143078022650814</v>
+      </c>
+      <c r="E77">
+        <v>-0.04519664338872849</v>
+      </c>
+      <c r="F77">
+        <v>-0.03312283961178042</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09960075503299479</v>
+        <v>0.1006524838719945</v>
       </c>
       <c r="C78">
-        <v>0.04411802078567009</v>
+        <v>-0.03867051194558472</v>
       </c>
       <c r="D78">
-        <v>0.1085582996704217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1113532110513093</v>
+      </c>
+      <c r="E78">
+        <v>-0.07602674792797569</v>
+      </c>
+      <c r="F78">
+        <v>-0.05268300924931493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1646303557465085</v>
+        <v>0.1629399442199871</v>
       </c>
       <c r="C79">
-        <v>0.02531617691093502</v>
+        <v>-0.02434484657852726</v>
       </c>
       <c r="D79">
-        <v>0.01197464847326716</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01312155796405668</v>
+      </c>
+      <c r="E79">
+        <v>-0.04424247880455132</v>
+      </c>
+      <c r="F79">
+        <v>-0.01251681307176367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08073576525812826</v>
+        <v>0.07917524572072815</v>
       </c>
       <c r="C80">
-        <v>0.001194740901395212</v>
+        <v>0.0007691962451362696</v>
       </c>
       <c r="D80">
-        <v>0.05026546830335255</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05383773531946393</v>
+      </c>
+      <c r="E80">
+        <v>-0.03236283080499727</v>
+      </c>
+      <c r="F80">
+        <v>0.0252146512536218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1205004139100154</v>
+        <v>0.1174218019985558</v>
       </c>
       <c r="C81">
-        <v>0.03273345640857949</v>
+        <v>-0.03296208548623385</v>
       </c>
       <c r="D81">
-        <v>0.02256428961146789</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01446202562285974</v>
+      </c>
+      <c r="E81">
+        <v>-0.05523992170502694</v>
+      </c>
+      <c r="F81">
+        <v>-0.01894691449596034</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1660299749095229</v>
+        <v>0.1652324154028438</v>
       </c>
       <c r="C82">
-        <v>0.02606983726151399</v>
+        <v>-0.02679524365031377</v>
       </c>
       <c r="D82">
-        <v>0.01287254188446586</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.0025551738061808</v>
+      </c>
+      <c r="E82">
+        <v>-0.02852381117501298</v>
+      </c>
+      <c r="F82">
+        <v>-0.08184181490331512</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06298747082287644</v>
+        <v>0.05732683339284336</v>
       </c>
       <c r="C83">
-        <v>0.005576109766967137</v>
+        <v>-0.003235675658212481</v>
       </c>
       <c r="D83">
-        <v>0.04162542464075737</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04846176681807201</v>
+      </c>
+      <c r="E83">
+        <v>-0.001139994425954609</v>
+      </c>
+      <c r="F83">
+        <v>0.03546676259816642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06307395394704368</v>
+        <v>0.05728630298452204</v>
       </c>
       <c r="C84">
-        <v>0.01418845893450125</v>
+        <v>-0.01099747219100667</v>
       </c>
       <c r="D84">
-        <v>0.06633722043759782</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07199330445123729</v>
+      </c>
+      <c r="E84">
+        <v>-0.01407294185789503</v>
+      </c>
+      <c r="F84">
+        <v>-0.01494942042132144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1382453865711941</v>
+        <v>0.1342395190045933</v>
       </c>
       <c r="C85">
-        <v>0.02941915000280782</v>
+        <v>-0.02939307684729462</v>
       </c>
       <c r="D85">
-        <v>0.01484638955233108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009709919983737488</v>
+      </c>
+      <c r="E85">
+        <v>-0.03668685332116682</v>
+      </c>
+      <c r="F85">
+        <v>-0.04782650185894785</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1015412769000355</v>
+        <v>0.09357594630102664</v>
       </c>
       <c r="C86">
-        <v>-0.002402678972591122</v>
+        <v>0.005517462474097329</v>
       </c>
       <c r="D86">
-        <v>0.003253749227512241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05142436842561034</v>
+      </c>
+      <c r="E86">
+        <v>-0.2185867192985224</v>
+      </c>
+      <c r="F86">
+        <v>0.9002679219028411</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09908619623911216</v>
+        <v>0.09361306146584199</v>
       </c>
       <c r="C87">
-        <v>0.02843707338175291</v>
+        <v>-0.01966689540340345</v>
       </c>
       <c r="D87">
-        <v>0.07060958276319343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09597292416812876</v>
+      </c>
+      <c r="E87">
+        <v>0.05164407906143753</v>
+      </c>
+      <c r="F87">
+        <v>-0.05215426841115239</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06002016605870561</v>
+        <v>0.06021628535712331</v>
       </c>
       <c r="C88">
-        <v>0.005351126960116288</v>
+        <v>-0.002834743835486733</v>
       </c>
       <c r="D88">
-        <v>0.05450111638878065</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05017034852422589</v>
+      </c>
+      <c r="E88">
+        <v>-0.02464199499289544</v>
+      </c>
+      <c r="F88">
+        <v>-0.01490162718025652</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1184869483396736</v>
+        <v>0.1274862612098072</v>
       </c>
       <c r="C89">
-        <v>0.003994296150586205</v>
+        <v>-0.01353792862834981</v>
       </c>
       <c r="D89">
-        <v>-0.2527859317954573</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2447577671267357</v>
+      </c>
+      <c r="E89">
+        <v>0.09234566411436082</v>
+      </c>
+      <c r="F89">
+        <v>0.008128483881822279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1366837265623356</v>
+        <v>0.1513385143222225</v>
       </c>
       <c r="C90">
-        <v>0.0234695617219682</v>
+        <v>-0.03478530385672614</v>
       </c>
       <c r="D90">
-        <v>-0.268961713390565</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2684213711233958</v>
+      </c>
+      <c r="E90">
+        <v>0.1140581609433315</v>
+      </c>
+      <c r="F90">
+        <v>0.008956785818707754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1208126665712121</v>
+        <v>0.1206804943097151</v>
       </c>
       <c r="C91">
-        <v>0.02026571974576978</v>
+        <v>-0.02093799067559013</v>
       </c>
       <c r="D91">
-        <v>-0.00962789662650051</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01602074968446491</v>
+      </c>
+      <c r="E91">
+        <v>-0.05377229153173813</v>
+      </c>
+      <c r="F91">
+        <v>0.001230808181976716</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1396168000199416</v>
+        <v>0.1473863616323034</v>
       </c>
       <c r="C92">
-        <v>0.01399477683567619</v>
+        <v>-0.02581752501530904</v>
       </c>
       <c r="D92">
-        <v>-0.3041603766178764</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2908871815183443</v>
+      </c>
+      <c r="E92">
+        <v>0.1016820984097125</v>
+      </c>
+      <c r="F92">
+        <v>0.01982461918589365</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1407925699316916</v>
+        <v>0.1527564953010746</v>
       </c>
       <c r="C93">
-        <v>0.01955481147453597</v>
+        <v>-0.02977040141689899</v>
       </c>
       <c r="D93">
-        <v>-0.2692756605781497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2645621123374536</v>
+      </c>
+      <c r="E93">
+        <v>0.07628463977355449</v>
+      </c>
+      <c r="F93">
+        <v>-0.002350890516486277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341242854227087</v>
+        <v>0.1270383985656322</v>
       </c>
       <c r="C94">
-        <v>0.02735814183298379</v>
+        <v>-0.02563645884262255</v>
       </c>
       <c r="D94">
-        <v>0.04228650099351409</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.03998297990289659</v>
+      </c>
+      <c r="E94">
+        <v>-0.05712915847514459</v>
+      </c>
+      <c r="F94">
+        <v>-0.03237277513155587</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1242739526965271</v>
+        <v>0.1271863096302149</v>
       </c>
       <c r="C95">
-        <v>0.009642939727322278</v>
+        <v>-0.003507632525760623</v>
       </c>
       <c r="D95">
-        <v>0.08655662200180207</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09903556508634763</v>
+      </c>
+      <c r="E95">
+        <v>-0.05444664886364788</v>
+      </c>
+      <c r="F95">
+        <v>-0.001338665308692872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1214001283733594</v>
+        <v>0.1154371271281462</v>
       </c>
       <c r="C96">
-        <v>-0.9868569332762447</v>
+        <v>0.986476427378072</v>
       </c>
       <c r="D96">
-        <v>-0.01380084872639891</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05125201949184079</v>
+      </c>
+      <c r="E96">
+        <v>-0.05235509934382046</v>
+      </c>
+      <c r="F96">
+        <v>-0.04199624224946757</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1943491758238493</v>
+        <v>0.1952224449682873</v>
       </c>
       <c r="C97">
-        <v>-0.004806027686745845</v>
+        <v>0.005459891462563665</v>
       </c>
       <c r="D97">
-        <v>-0.01334309471912327</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02123100515412196</v>
+      </c>
+      <c r="E97">
+        <v>-0.02009319764564921</v>
+      </c>
+      <c r="F97">
+        <v>0.1139900684771917</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1998984812803079</v>
+        <v>0.2065419218975716</v>
       </c>
       <c r="C98">
-        <v>0.01188574102491241</v>
+        <v>-0.007769758397928801</v>
       </c>
       <c r="D98">
-        <v>0.01123413035123142</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01474066696141041</v>
+      </c>
+      <c r="E98">
+        <v>0.076376896066988</v>
+      </c>
+      <c r="F98">
+        <v>0.09126653622650892</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05517618872105693</v>
+        <v>0.05551952993964629</v>
       </c>
       <c r="C99">
-        <v>-0.001965136034287797</v>
+        <v>0.004057792828347316</v>
       </c>
       <c r="D99">
-        <v>0.02548161496492027</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03854788352644472</v>
+      </c>
+      <c r="E99">
+        <v>-0.02152801873518146</v>
+      </c>
+      <c r="F99">
+        <v>-0.004224716629501889</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1430387454924131</v>
+        <v>0.1289554005978718</v>
       </c>
       <c r="C100">
-        <v>-0.03858496974517771</v>
+        <v>0.05140206845669917</v>
       </c>
       <c r="D100">
-        <v>0.4031736722963548</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3527774454304962</v>
+      </c>
+      <c r="E100">
+        <v>0.886377517647633</v>
+      </c>
+      <c r="F100">
+        <v>0.1443799459542001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0249693751979968</v>
+        <v>0.02876134333983882</v>
       </c>
       <c r="C101">
-        <v>0.009631698843619517</v>
+        <v>-0.008753519067374434</v>
       </c>
       <c r="D101">
-        <v>0.0247497108130422</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03065997840804508</v>
+      </c>
+      <c r="E101">
+        <v>-0.01268237981485422</v>
+      </c>
+      <c r="F101">
+        <v>0.01453067746650867</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
